--- a/PreliminaryDesign/Report/Avionics.xlsx
+++ b/PreliminaryDesign/Report/Avionics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Батарея</t>
   </si>
@@ -70,6 +70,36 @@
   </si>
   <si>
     <t>EMAX  ES08MD</t>
+  </si>
+  <si>
+    <t>Случай отказа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Действия </t>
+  </si>
+  <si>
+    <t>Увеличение отказоустойчивости</t>
+  </si>
+  <si>
+    <t>Степень критичности</t>
+  </si>
+  <si>
+    <t>Датчик</t>
+  </si>
+  <si>
+    <t>MPU6500</t>
+  </si>
+  <si>
+    <t>QMC5883L</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>M10Q-5883</t>
+  </si>
+  <si>
+    <t>ASPD-4525</t>
   </si>
 </sst>
 </file>
@@ -147,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,6 +190,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,85 +500,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PreliminaryDesign/Report/Avionics.xlsx
+++ b/PreliminaryDesign/Report/Avionics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Батарея</t>
   </si>
@@ -72,41 +72,14 @@
     <t>EMAX  ES08MD</t>
   </si>
   <si>
-    <t>Случай отказа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Действия </t>
-  </si>
-  <si>
-    <t>Увеличение отказоустойчивости</t>
-  </si>
-  <si>
-    <t>Степень критичности</t>
-  </si>
-  <si>
-    <t>Датчик</t>
-  </si>
-  <si>
-    <t>MPU6500</t>
-  </si>
-  <si>
-    <t>QMC5883L</t>
-  </si>
-  <si>
-    <t>BMP280</t>
-  </si>
-  <si>
-    <t>M10Q-5883</t>
-  </si>
-  <si>
-    <t>ASPD-4525</t>
+    <t>SURPASS HOBBY C3548 900KV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,19 +88,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,26 +159,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,6 +180,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF59200"/>
+      <color rgb="FF2D7BB5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,24 +481,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="B1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,20 +515,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -557,14 +540,14 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
@@ -581,68 +564,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
+    <row r="11" spans="2:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
